--- a/mini-game/Assets/Resources/doc/stage.xlsx
+++ b/mini-game/Assets/Resources/doc/stage.xlsx
@@ -16,9 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>关卡</t>
     </r>
     <r>
@@ -62,31 +68,37 @@
     <t>第三关</t>
   </si>
   <si>
-    <t>e2</t>
+    <t>ceshi2</t>
   </si>
   <si>
     <t>第四关</t>
   </si>
   <si>
+    <t>ceshi1</t>
+  </si>
+  <si>
+    <t>第五关</t>
+  </si>
+  <si>
     <t>e3</t>
   </si>
   <si>
-    <t>第五关</t>
+    <t>第六关</t>
+  </si>
+  <si>
+    <t>ceshi-big</t>
+  </si>
+  <si>
+    <t>第七关</t>
   </si>
   <si>
     <t>n1</t>
   </si>
   <si>
-    <t>第六关</t>
-  </si>
-  <si>
-    <t>第七关</t>
+    <t>第八关</t>
   </si>
   <si>
     <t>h1</t>
-  </si>
-  <si>
-    <t>第八关</t>
   </si>
 </sst>
 </file>
@@ -95,11 +107,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,29 +152,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,40 +234,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,38 +258,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,15 +275,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,25 +310,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,13 +448,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,61 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,73 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,21 +501,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,9 +521,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,34 +572,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,148 +606,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,7 +1119,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1231,12 +1236,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>6006</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1244,18 +1252,21 @@
         <v>6007</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>6008</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/mini-game/Assets/Resources/doc/stage.xlsx
+++ b/mini-game/Assets/Resources/doc/stage.xlsx
@@ -68,7 +68,7 @@
     <t>第三关</t>
   </si>
   <si>
-    <t>ceshi2</t>
+    <t>ceishi2</t>
   </si>
   <si>
     <t>第四关</t>
@@ -106,10 +106,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -152,12 +152,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -181,40 +226,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,54 +273,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,43 +310,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,139 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,67 +504,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,9 +539,65 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,7 +1119,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/mini-game/Assets/Resources/doc/stage.xlsx
+++ b/mini-game/Assets/Resources/doc/stage.xlsx
@@ -68,13 +68,13 @@
     <t>第三关</t>
   </si>
   <si>
-    <t>ceishi2</t>
+    <t>ceshi2</t>
   </si>
   <si>
     <t>第四关</t>
   </si>
   <si>
-    <t>ceshi1</t>
+    <t>ceishi1</t>
   </si>
   <si>
     <t>第五关</t>
@@ -106,10 +106,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -151,6 +151,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -159,6 +182,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -166,7 +196,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,114 +280,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -310,12 +310,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -328,169 +418,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,50 +501,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -601,6 +557,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/mini-game/Assets/Resources/doc/stage.xlsx
+++ b/mini-game/Assets/Resources/doc/stage.xlsx
@@ -74,7 +74,7 @@
     <t>第四关</t>
   </si>
   <si>
-    <t>ceishi1</t>
+    <t>ceshi1</t>
   </si>
   <si>
     <t>第五关</t>
@@ -152,6 +152,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -168,105 +184,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,6 +198,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -288,8 +241,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,13 +316,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,55 +460,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,103 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +501,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,21 +524,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,13 +552,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,7 +570,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -592,15 +601,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/mini-game/Assets/Resources/doc/stage.xlsx
+++ b/mini-game/Assets/Resources/doc/stage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="21000" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -151,6 +151,103 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -160,37 +257,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -198,22 +264,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,70 +287,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,37 +310,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,31 +454,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,109 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,15 +501,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,8 +522,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,16 +543,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -570,8 +561,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,16 +587,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -609,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,7 +1119,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/mini-game/Assets/Resources/doc/stage.xlsx
+++ b/mini-game/Assets/Resources/doc/stage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11790"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <r>
       <rPr>
@@ -62,43 +62,37 @@
     <t>第二关</t>
   </si>
   <si>
-    <t>e1</t>
+    <t>level2</t>
   </si>
   <si>
     <t>第三关</t>
   </si>
   <si>
-    <t>ceshi2</t>
+    <t>level3</t>
   </si>
   <si>
     <t>第四关</t>
   </si>
   <si>
-    <t>ceshi1</t>
+    <t>test-6</t>
   </si>
   <si>
     <t>第五关</t>
   </si>
   <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>第六关</t>
+  </si>
+  <si>
+    <t>test-8</t>
+  </si>
+  <si>
+    <t>第七关</t>
+  </si>
+  <si>
     <t>e3</t>
-  </si>
-  <si>
-    <t>第六关</t>
-  </si>
-  <si>
-    <t>ceshi-big</t>
-  </si>
-  <si>
-    <t>第七关</t>
-  </si>
-  <si>
-    <t>n1</t>
-  </si>
-  <si>
-    <t>第八关</t>
-  </si>
-  <si>
-    <t>h1</t>
   </si>
 </sst>
 </file>
@@ -106,9 +100,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -152,20 +146,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -174,20 +198,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -196,21 +206,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,27 +227,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,32 +251,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,187 +304,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +495,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -521,6 +539,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -528,17 +557,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,35 +577,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,10 +603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +615,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1256,17 +1250,6 @@
       </c>
       <c r="C9" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>6008</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/mini-game/Assets/Resources/doc/stage.xlsx
+++ b/mini-game/Assets/Resources/doc/stage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <r>
       <rPr>
@@ -44,6 +44,9 @@
     <t>地图</t>
   </si>
   <si>
+    <t>上阵人数</t>
+  </si>
+  <si>
     <t>stage_id</t>
   </si>
   <si>
@@ -51,6 +54,9 @@
   </si>
   <si>
     <t>map</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
   <si>
     <t>第一关</t>
@@ -101,8 +107,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -145,6 +151,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -154,14 +168,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,59 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -259,6 +244,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -267,7 +259,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,6 +283,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,13 +310,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,19 +418,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,139 +454,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,6 +515,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +567,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -556,45 +601,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -603,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,7 +1119,7 @@
   <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1136,7 +1142,9 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
@@ -1162,94 +1170,117 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="12.75" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>6001</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>6002</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>6003</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>6004</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6005</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>6006</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>6007</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
